--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam4-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam4-Itgb3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H2">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I2">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J2">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>21.044097389952</v>
+        <v>0.04126644520266667</v>
       </c>
       <c r="R2">
-        <v>189.396876509568</v>
+        <v>0.371398006824</v>
       </c>
       <c r="S2">
-        <v>0.3709409708011973</v>
+        <v>0.004002982607043249</v>
       </c>
       <c r="T2">
-        <v>0.3709409708011972</v>
+        <v>0.004002982607043249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H3">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I3">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J3">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
-        <v>21.14268427487378</v>
+        <v>3.363992694194222</v>
       </c>
       <c r="R3">
-        <v>190.284158473864</v>
+        <v>30.275934247748</v>
       </c>
       <c r="S3">
-        <v>0.3726787462031781</v>
+        <v>0.3263184938500553</v>
       </c>
       <c r="T3">
-        <v>0.3726787462031781</v>
+        <v>0.3263184938500554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H4">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I4">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J4">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>1.015267084811778</v>
+        <v>0.2587995741503333</v>
       </c>
       <c r="R4">
-        <v>9.137403763306001</v>
+        <v>2.329196167353</v>
       </c>
       <c r="S4">
-        <v>0.01789595206123694</v>
+        <v>0.02510442052728687</v>
       </c>
       <c r="T4">
-        <v>0.01789595206123694</v>
+        <v>0.02510442052728687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H5">
         <v>2.004951</v>
       </c>
       <c r="I5">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J5">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N5">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O5">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P5">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q5">
-        <v>5.994835569216</v>
+        <v>0.073883780984</v>
       </c>
       <c r="R5">
-        <v>53.95352012294399</v>
+        <v>0.6649540288560001</v>
       </c>
       <c r="S5">
-        <v>0.1056700168523409</v>
+        <v>0.007166972797609249</v>
       </c>
       <c r="T5">
-        <v>0.1056700168523409</v>
+        <v>0.007166972797609251</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H6">
         <v>2.004951</v>
       </c>
       <c r="I6">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J6">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q6">
-        <v>6.022920031734666</v>
+        <v>6.022920031734667</v>
       </c>
       <c r="R6">
-        <v>54.20628028561199</v>
+        <v>54.206280285612</v>
       </c>
       <c r="S6">
-        <v>0.1061650572239027</v>
+        <v>0.5842433001495428</v>
       </c>
       <c r="T6">
-        <v>0.1061650572239026</v>
+        <v>0.5842433001495428</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H7">
         <v>2.004951</v>
       </c>
       <c r="I7">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J7">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N7">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q7">
-        <v>0.2892193055136666</v>
+        <v>0.463356874123</v>
       </c>
       <c r="R7">
-        <v>2.602973749623</v>
+        <v>4.170211867107</v>
       </c>
       <c r="S7">
-        <v>0.00509802287899088</v>
+        <v>0.04494715982583442</v>
       </c>
       <c r="T7">
-        <v>0.005098022878990879</v>
+        <v>0.04494715982583443</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H8">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I8">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J8">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N8">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O8">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P8">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q8">
-        <v>0.595557366912</v>
+        <v>0.0009539900586666667</v>
       </c>
       <c r="R8">
-        <v>5.360016302208</v>
+        <v>0.008585910528</v>
       </c>
       <c r="S8">
-        <v>0.01049779535593786</v>
+        <v>9.254021259597281E-05</v>
       </c>
       <c r="T8">
-        <v>0.01049779535593786</v>
+        <v>9.25402125959728E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H9">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I9">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J9">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q9">
-        <v>0.5983474198426666</v>
+        <v>0.07776816180622223</v>
       </c>
       <c r="R9">
-        <v>5.385126778584</v>
+        <v>0.699913456256</v>
       </c>
       <c r="S9">
-        <v>0.01054697517693519</v>
+        <v>0.00754377067283508</v>
       </c>
       <c r="T9">
-        <v>0.01054697517693519</v>
+        <v>0.007543770672835079</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H10">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I10">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J10">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N10">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q10">
-        <v>0.02873251252066666</v>
+        <v>0.005982880757333334</v>
       </c>
       <c r="R10">
-        <v>0.258592612686</v>
+        <v>0.053845926816</v>
       </c>
       <c r="S10">
-        <v>0.0005064634462803138</v>
+        <v>0.00058035935719686</v>
       </c>
       <c r="T10">
-        <v>0.0005064634462803138</v>
+        <v>0.00058035935719686</v>
       </c>
     </row>
   </sheetData>
